--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/mk_MK.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/mk_MK.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6243">
   <si>
     <t>translation_group</t>
   </si>
@@ -10457,7 +10457,7 @@
     <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
-    <t>crwdns35816:0crwdne35816:0</t>
+    <t>crwdns50501:0crwdne50501:0</t>
   </si>
   <si>
     <t>This is very important for search engines.</t>
@@ -17791,613 +17791,613 @@
     <t>Welcome to Microweber</t>
   </si>
   <si>
-    <t>crwdns35698:0crwdne35698:0</t>
+    <t>crwdns50503:0crwdne50503:0</t>
   </si>
   <si>
     <t>Use Microweber to build your website, online shop or blog.</t>
   </si>
   <si>
-    <t>crwdns35700:0crwdne35700:0</t>
+    <t>crwdns50505:0crwdne50505:0</t>
   </si>
   <si>
     <t>Create and edit content, sell online, manage orders and clients.</t>
   </si>
   <si>
-    <t>crwdns35702:0crwdne35702:0</t>
+    <t>crwdns50507:0crwdne50507:0</t>
   </si>
   <si>
     <t>Remove</t>
   </si>
   <si>
-    <t>crwdns35704:0crwdne35704:0</t>
+    <t>crwdns50509:0crwdne50509:0</t>
   </si>
   <si>
     <t>Abandoned cart's</t>
   </si>
   <si>
-    <t>crwdns35708:0crwdne35708:0</t>
+    <t>crwdns50513:0crwdne50513:0</t>
   </si>
   <si>
     <t>You are using this template.</t>
   </si>
   <si>
-    <t>crwdns35710:0crwdne35710:0</t>
+    <t>crwdns50515:0crwdne50515:0</t>
   </si>
   <si>
     <t>The change will affect only the current page.</t>
   </si>
   <si>
-    <t>crwdns35712:0crwdne35712:0</t>
+    <t>crwdns50517:0crwdne50517:0</t>
   </si>
   <si>
     <t>Allow multiple templates</t>
   </si>
   <si>
-    <t>crwdns35714:0crwdne35714:0</t>
+    <t>crwdns50519:0crwdne50519:0</t>
   </si>
   <si>
     <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
   </si>
   <si>
-    <t>crwdns35716:0crwdne35716:0</t>
+    <t>crwdns50521:0crwdne50521:0</t>
   </si>
   <si>
     <t>System e-mail website settings</t>
   </si>
   <si>
-    <t>crwdns35718:0crwdne35718:0</t>
+    <t>crwdns50523:0crwdne50523:0</t>
   </si>
   <si>
     <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
   </si>
   <si>
-    <t>crwdns35720:0crwdne35720:0</t>
+    <t>crwdns50525:0crwdne50525:0</t>
   </si>
   <si>
     <t>From e-mail address</t>
   </si>
   <si>
-    <t>crwdns35722:0crwdne35722:0</t>
+    <t>crwdns50527:0crwdne50527:0</t>
   </si>
   <si>
     <t>Ex. Your Website Name</t>
   </si>
   <si>
-    <t>crwdns35724:0crwdne35724:0</t>
+    <t>crwdns50529:0crwdne50529:0</t>
   </si>
   <si>
     <t>General e-mail provider settings</t>
   </si>
   <si>
-    <t>crwdns35726:0crwdne35726:0</t>
+    <t>crwdns50531:0crwdne50531:0</t>
   </si>
   <si>
     <t>Set up your email provider.</t>
   </si>
   <si>
-    <t>crwdns35728:0crwdne35728:0</t>
+    <t>crwdns50533:0crwdne50533:0</t>
   </si>
   <si>
     <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
   </si>
   <si>
-    <t>crwdns35730:0crwdne35730:0</t>
+    <t>crwdns50535:0crwdne50535:0</t>
   </si>
   <si>
     <t>Website Logo</t>
   </si>
   <si>
-    <t>crwdns35732:0crwdne35732:0</t>
+    <t>crwdns50537:0crwdne50537:0</t>
   </si>
   <si>
     <t>Select an logo for your website.</t>
   </si>
   <si>
-    <t>crwdns35734:0crwdne35734:0</t>
+    <t>crwdns50539:0crwdne50539:0</t>
   </si>
   <si>
     <t>Upload logo</t>
   </si>
   <si>
-    <t>crwdns35736:0crwdne35736:0</t>
+    <t>crwdns50541:0crwdne50541:0</t>
   </si>
   <si>
     <t>Website Favicon</t>
   </si>
   <si>
-    <t>crwdns35738:0crwdne35738:0</t>
+    <t>crwdns50543:0crwdne50543:0</t>
   </si>
   <si>
     <t>Changing default language..</t>
   </si>
   <si>
-    <t>crwdns35740:0crwdne35740:0</t>
+    <t>crwdns50545:0crwdne50545:0</t>
   </si>
   <si>
     <t>Clear cache..</t>
   </si>
   <si>
-    <t>crwdns35742:0crwdne35742:0</t>
+    <t>crwdns50547:0crwdne50547:0</t>
   </si>
   <si>
     <t>Install Multilanguage Module</t>
   </si>
   <si>
-    <t>crwdns35744:0crwdne35744:0</t>
+    <t>crwdns50549:0crwdne50549:0</t>
   </si>
   <si>
     <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
-    <t>crwdns35746:0crwdne35746:0</t>
+    <t>crwdns50551:0crwdne50551:0</t>
   </si>
   <si>
     <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
   </si>
   <si>
-    <t>crwdns35748:0crwdne35748:0</t>
+    <t>crwdns50553:0crwdne50553:0</t>
   </si>
   <si>
     <t>Send email on new user registration to admin users</t>
   </si>
   <si>
-    <t>crwdns35750:0crwdne35750:0</t>
+    <t>crwdns50555:0crwdne50555:0</t>
   </si>
   <si>
     <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
   </si>
   <si>
-    <t>crwdns35752:0crwdne35752:0</t>
+    <t>crwdns50557:0crwdne50557:0</t>
   </si>
   <si>
     <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
   </si>
   <si>
-    <t>crwdns35766:0crwdne35766:0</t>
+    <t>crwdns50571:0crwdne50571:0</t>
   </si>
   <si>
     <t>A Slider</t>
   </si>
   <si>
-    <t>crwdns35772:0crwdne35772:0</t>
+    <t>crwdns50577:0crwdne50577:0</t>
   </si>
   <si>
     <t>Shipping to address</t>
   </si>
   <si>
-    <t>crwdns35778:0crwdne35778:0</t>
+    <t>crwdns50583:0crwdne50583:0</t>
   </si>
   <si>
     <t>Pickup from address</t>
   </si>
   <si>
-    <t>crwdns35780:0crwdne35780:0</t>
+    <t>crwdns50585:0crwdne50585:0</t>
   </si>
   <si>
     <t>Global settings</t>
   </si>
   <si>
-    <t>crwdns35782:0crwdne35782:0</t>
+    <t>crwdns50587:0crwdne50587:0</t>
   </si>
   <si>
     <t>E-mail Integrations</t>
   </si>
   <si>
-    <t>crwdns35784:0crwdne35784:0</t>
+    <t>crwdns50589:0crwdne50589:0</t>
   </si>
   <si>
     <t>You don't have system e-mail and smtp setup.</t>
   </si>
   <si>
-    <t>crwdns35786:0crwdne35786:0</t>
+    <t>crwdns50591:0crwdne50591:0</t>
   </si>
   <si>
     <t>Setup your system settings here.</t>
   </si>
   <si>
-    <t>crwdns35788:0crwdne35788:0</t>
+    <t>crwdns50593:0crwdne50593:0</t>
   </si>
   <si>
     <t>Global contact form settings</t>
   </si>
   <si>
-    <t>crwdns35790:0crwdne35790:0</t>
+    <t>crwdns50595:0crwdne50595:0</t>
   </si>
   <si>
     <t>E-mail sending options</t>
   </si>
   <si>
-    <t>crwdns35792:0crwdne35792:0</t>
+    <t>crwdns50597:0crwdne50597:0</t>
   </si>
   <si>
     <t>Global sender</t>
   </si>
   <si>
-    <t>crwdns35794:0crwdne35794:0</t>
+    <t>crwdns50599:0crwdne50599:0</t>
   </si>
   <si>
     <t>Use custom sender settings</t>
   </si>
   <si>
-    <t>crwdns35796:0crwdne35796:0</t>
+    <t>crwdns50601:0crwdne50601:0</t>
   </si>
   <si>
     <t>Use custom sender settings for the global contact forms.</t>
   </si>
   <si>
-    <t>crwdns35798:0crwdne35798:0</t>
+    <t>crwdns50603:0crwdne50603:0</t>
   </si>
   <si>
     <t>By default we will use website system e-mail settings.</t>
   </si>
   <si>
-    <t>crwdns35800:0crwdne35800:0</t>
+    <t>crwdns50605:0crwdne50605:0</t>
   </si>
   <si>
     <t>You can change the system e-mail settings here.</t>
   </si>
   <si>
-    <t>crwdns35802:0crwdne35802:0</t>
+    <t>crwdns50607:0crwdne50607:0</t>
   </si>
   <si>
     <t>Global Receivers</t>
   </si>
   <si>
-    <t>crwdns35804:0crwdne35804:0</t>
+    <t>crwdns50609:0crwdne50609:0</t>
   </si>
   <si>
     <t>Send contact forms data to global receivers when is submited</t>
   </si>
   <si>
-    <t>crwdns35806:0crwdne35806:0</t>
+    <t>crwdns50611:0crwdne50611:0</t>
   </si>
   <si>
     <t>To e-mail addresses</t>
   </si>
   <si>
-    <t>crwdns35808:0crwdne35808:0</t>
+    <t>crwdns50613:0crwdne50613:0</t>
   </si>
   <si>
     <t>E-mail address of the receivers seperated with coma.</t>
   </si>
   <si>
-    <t>crwdns35810:0crwdne35810:0</t>
+    <t>crwdns50615:0crwdne50615:0</t>
   </si>
   <si>
     <t>Contact your hosting provider to enable PHP SOAP extension.</t>
   </si>
   <si>
-    <t>crwdns35812:0crwdne35812:0</t>
+    <t>crwdns50617:0crwdne50617:0</t>
   </si>
   <si>
     <t>Elements</t>
   </si>
   <si>
-    <t>crwdns35814:0crwdne35814:0</t>
+    <t>crwdns50619:0crwdne50619:0</t>
   </si>
   <si>
     <t>2 months ago</t>
   </si>
   <si>
-    <t>crwdns35826:0crwdne35826:0</t>
+    <t>crwdns50629:0crwdne50629:0</t>
   </si>
   <si>
     <t>Remove logo</t>
   </si>
   <si>
-    <t>crwdns35880:0crwdne35880:0</t>
+    <t>crwdns50683:0crwdne50683:0</t>
   </si>
   <si>
     <t>Remove favicon</t>
   </si>
   <si>
-    <t>crwdns35884:0crwdne35884:0</t>
+    <t>crwdns50687:0crwdne50687:0</t>
   </si>
   <si>
     <t>Custom</t>
   </si>
   <si>
-    <t>crwdns35936:0crwdne35936:0</t>
+    <t>crwdns50739:0crwdne50739:0</t>
   </si>
   <si>
     <t>bxSlider</t>
   </si>
   <si>
-    <t>crwdns35938:0crwdne35938:0</t>
+    <t>crwdns50741:0crwdne50741:0</t>
   </si>
   <si>
     <t>Schema.org</t>
   </si>
   <si>
-    <t>crwdns35940:0crwdne35940:0</t>
+    <t>crwdns50743:0crwdne50743:0</t>
   </si>
   <si>
     <t>ProductsV2</t>
   </si>
   <si>
-    <t>crwdns35942:0crwdne35942:0</t>
+    <t>crwdns50745:0crwdne50745:0</t>
   </si>
   <si>
     <t>Timeline</t>
   </si>
   <si>
-    <t>crwdns35944:0crwdne35944:0</t>
+    <t>crwdns50747:0crwdne50747:0</t>
   </si>
   <si>
     <t>White label WHMCS</t>
   </si>
   <si>
-    <t>crwdns35946:0crwdne35946:0</t>
+    <t>crwdns50749:0crwdne50749:0</t>
   </si>
   <si>
     <t>Number of the visible testimonials</t>
   </si>
   <si>
-    <t>crwdns35948:0crwdne35948:0</t>
+    <t>crwdns50751:0crwdne50751:0</t>
   </si>
   <si>
     <t>Module template has changed</t>
   </si>
   <si>
-    <t>crwdns35950:0crwdne35950:0</t>
+    <t>crwdns50753:0crwdne50753:0</t>
   </si>
   <si>
     <t>Content versions</t>
   </si>
   <si>
-    <t>crwdns35952:0crwdne35952:0</t>
+    <t>crwdns50755:0crwdne50755:0</t>
   </si>
   <si>
     <t>Clear Cache</t>
   </si>
   <si>
-    <t>crwdns35954:0crwdne35954:0</t>
+    <t>crwdns50757:0crwdne50757:0</t>
   </si>
   <si>
     <t>Default layouts and elements</t>
   </si>
   <si>
-    <t>crwdns35956:0crwdne35956:0</t>
+    <t>crwdns50759:0crwdne50759:0</t>
   </si>
   <si>
     <t>Arrows List</t>
   </si>
   <si>
-    <t>crwdns35958:0crwdne35958:0</t>
+    <t>crwdns50761:0crwdne50761:0</t>
   </si>
   <si>
     <t>Checked List</t>
   </si>
   <si>
-    <t>crwdns35960:0crwdne35960:0</t>
+    <t>crwdns50763:0crwdne50763:0</t>
   </si>
   <si>
     <t>Background Text</t>
   </si>
   <si>
-    <t>crwdns35962:0crwdne35962:0</t>
+    <t>crwdns50765:0crwdne50765:0</t>
   </si>
   <si>
     <t>Title with Text</t>
   </si>
   <si>
-    <t>crwdns35964:0crwdne35964:0</t>
+    <t>crwdns50767:0crwdne50767:0</t>
   </si>
   <si>
     <t>Icon with Text</t>
   </si>
   <si>
-    <t>crwdns35966:0crwdne35966:0</t>
+    <t>crwdns50769:0crwdne50769:0</t>
   </si>
   <si>
     <t>Two Text Columns</t>
   </si>
   <si>
-    <t>crwdns35968:0crwdne35968:0</t>
+    <t>crwdns50771:0crwdne50771:0</t>
   </si>
   <si>
     <t>Two text columns with icon and title</t>
   </si>
   <si>
-    <t>crwdns35970:0crwdne35970:0</t>
+    <t>crwdns50773:0crwdne50773:0</t>
   </si>
   <si>
     <t>Image with Title and Text</t>
   </si>
   <si>
-    <t>crwdns35972:0crwdne35972:0</t>
+    <t>crwdns50775:0crwdne50775:0</t>
   </si>
   <si>
     <t>Text with Image and Title</t>
   </si>
   <si>
-    <t>crwdns35974:0crwdne35974:0</t>
+    <t>crwdns50777:0crwdne50777:0</t>
   </si>
   <si>
     <t>Text with Image</t>
   </si>
   <si>
-    <t>crwdns35976:0crwdne35976:0</t>
+    <t>crwdns50779:0crwdne50779:0</t>
   </si>
   <si>
     <t>Enable comments</t>
   </si>
   <si>
-    <t>crwdns35978:0crwdne35978:0</t>
+    <t>crwdns50781:0crwdne50781:0</t>
   </si>
   <si>
     <t>Captcha settings</t>
   </si>
   <si>
-    <t>crwdns35980:0crwdne35980:0</t>
+    <t>crwdns50783:0crwdne50783:0</t>
   </si>
   <si>
     <t xml:space="preserve">Setup your captcha preferences from </t>
   </si>
   <si>
-    <t>crwdns35982:0crwdne35982:0</t>
+    <t>crwdns50785:0crwdne50785:0</t>
   </si>
   <si>
     <t>Add / Edit fields of the form using the custom fields</t>
   </si>
   <si>
-    <t>crwdns35984:0crwdne35984:0</t>
+    <t>crwdns50787:0crwdne50787:0</t>
   </si>
   <si>
     <t>Current contact form settings</t>
   </si>
   <si>
-    <t>crwdns35986:0crwdne35986:0</t>
+    <t>crwdns50789:0crwdne50789:0</t>
   </si>
   <si>
     <t>Contact form name</t>
   </si>
   <si>
-    <t>crwdns35988:0crwdne35988:0</t>
+    <t>crwdns50791:0crwdne50791:0</t>
   </si>
   <si>
     <t>What is the name of this contact form?</t>
   </si>
   <si>
-    <t>crwdns35990:0crwdne35990:0</t>
+    <t>crwdns50793:0crwdne50793:0</t>
   </si>
   <si>
     <t>Receivers</t>
   </si>
   <si>
-    <t>crwdns35992:0crwdne35992:0</t>
+    <t>crwdns50795:0crwdne50795:0</t>
   </si>
   <si>
     <t>Send contact form data to custom receivers when is submited</t>
   </si>
   <si>
-    <t>crwdns35994:0crwdne35994:0</t>
+    <t>crwdns50797:0crwdne50797:0</t>
   </si>
   <si>
     <t>Use custom receivers settings for the current contact form.</t>
   </si>
   <si>
-    <t>crwdns35996:0crwdne35996:0</t>
+    <t>crwdns50799:0crwdne50799:0</t>
   </si>
   <si>
     <t>By default we will use contact form global settings.</t>
   </si>
   <si>
-    <t>crwdns35998:0crwdne35998:0</t>
+    <t>crwdns50801:0crwdne50801:0</t>
   </si>
   <si>
     <t>You can change the contact form global settings here.</t>
   </si>
   <si>
-    <t>crwdns36000:0crwdne36000:0</t>
+    <t>crwdns50803:0crwdne50803:0</t>
   </si>
   <si>
     <t>Auto respond message to user</t>
   </si>
   <si>
-    <t>crwdns36002:0crwdne36002:0</t>
+    <t>crwdns50805:0crwdne50805:0</t>
   </si>
   <si>
     <t>Enable auto respond message to user</t>
   </si>
   <si>
-    <t>crwdns36004:0crwdne36004:0</t>
+    <t>crwdns50807:0crwdne50807:0</t>
   </si>
   <si>
     <t>Allow users to receive "Thank you emails after subscription."</t>
   </si>
   <si>
-    <t>crwdns36006:0crwdne36006:0</t>
+    <t>crwdns50809:0crwdne50809:0</t>
   </si>
   <si>
     <t>Auto respond subject</t>
   </si>
   <si>
-    <t>crwdns36008:0crwdne36008:0</t>
+    <t>crwdns50811:0crwdne50811:0</t>
   </si>
   <si>
     <t>Auto responders allows you to set up automated replies to incoming email</t>
   </si>
   <si>
-    <t>crwdns36010:0crwdne36010:0</t>
+    <t>crwdns50813:0crwdne50813:0</t>
   </si>
   <si>
     <t>Auto respond message</t>
   </si>
   <si>
-    <t>crwdns36012:0crwdne36012:0</t>
+    <t>crwdns50815:0crwdne50815:0</t>
   </si>
   <si>
     <t>Auto respond e-mail sent back to the user</t>
   </si>
   <si>
-    <t>crwdns36014:0crwdne36014:0</t>
+    <t>crwdns50817:0crwdne50817:0</t>
   </si>
   <si>
     <t>Auto respond custom sender</t>
   </si>
   <si>
-    <t>crwdns36016:0crwdne36016:0</t>
+    <t>crwdns50819:0crwdne50819:0</t>
   </si>
   <si>
     <t>Use custom sender settings for the current contact form.</t>
   </si>
   <si>
-    <t>crwdns36018:0crwdne36018:0</t>
+    <t>crwdns50821:0crwdne50821:0</t>
   </si>
   <si>
     <t>Auto respond from e-mail address</t>
   </si>
   <si>
-    <t>crwdns36020:0crwdne36020:0</t>
+    <t>crwdns50823:0crwdne50823:0</t>
   </si>
   <si>
     <t>Auto respond from name</t>
   </si>
   <si>
-    <t>crwdns36022:0crwdne36022:0</t>
+    <t>crwdns50825:0crwdne50825:0</t>
   </si>
   <si>
     <t>Auto respond reply to e-mail</t>
   </si>
   <si>
-    <t>crwdns36024:0crwdne36024:0</t>
+    <t>crwdns50827:0crwdne50827:0</t>
   </si>
   <si>
     <t>When the user receive the auto respond message they can response back to reply to email.</t>
   </si>
   <si>
-    <t>crwdns36026:0crwdne36026:0</t>
+    <t>crwdns50829:0crwdne50829:0</t>
   </si>
   <si>
     <t>Auto respond e-mail attachments</t>
   </si>
   <si>
-    <t>crwdns36028:0crwdne36028:0</t>
+    <t>crwdns50831:0crwdne50831:0</t>
   </si>
   <si>
     <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
   </si>
   <si>
-    <t>crwdns36030:0crwdne36030:0</t>
+    <t>crwdns50833:0crwdne50833:0</t>
   </si>
   <si>
     <t>You don’t have any posts yet</t>
   </si>
   <si>
-    <t>crwdns36032:0crwdne36032:0</t>
+    <t>crwdns50835:0crwdne50835:0</t>
   </si>
   <si>
     <t>Create your first post right now.</t>
   </si>
   <si>
-    <t>crwdns36034:0crwdne36034:0</t>
+    <t>crwdns50837:0crwdne50837:0</t>
   </si>
   <si>
     <t>Create a Post</t>
   </si>
   <si>
-    <t>crwdns36036:0crwdne36036:0</t>
+    <t>crwdns50839:0crwdne50839:0</t>
   </si>
   <si>
     <t>templates-new-world</t>
@@ -18411,940 +18411,346 @@
                                                             limit each one to 5-8 words.</t>
   </si>
   <si>
-    <t>crwdns36046:0crwdne36046:0</t>
+    <t>crwdns50849:0crwdne50849:0</t>
   </si>
   <si>
     <t>Admin language</t>
   </si>
   <si>
-    <t>crwdns49596:0crwdne49596:0</t>
+    <t>crwdns50869:0crwdne50869:0</t>
+  </si>
+  <si>
+    <t>Add post</t>
+  </si>
+  <si>
+    <t>crwdns50871:0crwdne50871:0</t>
+  </si>
+  <si>
+    <t>Add subpage</t>
+  </si>
+  <si>
+    <t>crwdns50873:0crwdne50873:0</t>
+  </si>
+  <si>
+    <t>Category deleted</t>
+  </si>
+  <si>
+    <t>crwdns50875:0crwdne50875:0</t>
+  </si>
+  <si>
+    <t>Content deleted</t>
+  </si>
+  <si>
+    <t>crwdns50877:0crwdne50877:0</t>
+  </si>
+  <si>
+    <t>Search categories</t>
+  </si>
+  <si>
+    <t>crwdns50879:0crwdne50879:0</t>
+  </si>
+  <si>
+    <t>Create content</t>
+  </si>
+  <si>
+    <t>crwdns50881:0crwdne50881:0</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>crwdns50883:0crwdne50883:0</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>crwdns50885:0crwdne50885:0</t>
+  </si>
+  <si>
+    <t>Id Desc</t>
+  </si>
+  <si>
+    <t>crwdns50887:0crwdne50887:0</t>
+  </si>
+  <si>
+    <t>Id Asc</t>
+  </si>
+  <si>
+    <t>crwdns50889:0crwdne50889:0</t>
   </si>
   <si>
     <t>Limit</t>
   </si>
   <si>
-    <t>crwdns49600:0crwdne49600:0</t>
+    <t>crwdns50891:0crwdne50891:0</t>
+  </si>
+  <si>
+    <t>Are you sure want to delete?</t>
+  </si>
+  <si>
+    <t>crwdns50893:0crwdne50893:0</t>
+  </si>
+  <si>
+    <t>You don’t have any products in</t>
+  </si>
+  <si>
+    <t>crwdns50895:0crwdne50895:0</t>
+  </si>
+  <si>
+    <t>Back to</t>
+  </si>
+  <si>
+    <t>crwdns50897:0crwdne50897:0</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>crwdns50899:0crwdne50899:0</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>crwdns50901:0crwdne50901:0</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>crwdns50903:0crwdne50903:0</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>crwdns50905:0crwdne50905:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t>crwdns50907:0crwdne50907:0</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>crwdns50909:0crwdne50909:0</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>crwdns50911:0crwdne50911:0</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>crwdns50913:0crwdne50913:0</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>crwdns50915:0crwdne50915:0</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>crwdns50917:0crwdne50917:0</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>crwdns50919:0crwdne50919:0</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>crwdns50921:0crwdne50921:0</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>crwdns50923:0crwdne50923:0</t>
+  </si>
+  <si>
+    <t>Import Export Tool</t>
+  </si>
+  <si>
+    <t>crwdns50925:0crwdne50925:0</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>crwdns50927:0crwdne50927:0</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>crwdns50929:0crwdne50929:0</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>crwdns50931:0crwdne50931:0</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>crwdns50933:0crwdne50933:0</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>crwdns50935:0crwdne50935:0</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>crwdns50937:0crwdne50937:0</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>crwdns50939:0crwdne50939:0</t>
+  </si>
+  <si>
+    <t>Click &amp; Collect</t>
+  </si>
+  <si>
+    <t>crwdns50941:0crwdne50941:0</t>
+  </si>
+  <si>
+    <t>Video Background</t>
+  </si>
+  <si>
+    <t>crwdns50943:0crwdne50943:0</t>
+  </si>
+  <si>
+    <t>Multi-Language</t>
+  </si>
+  <si>
+    <t>crwdns50945:0crwdne50945:0</t>
+  </si>
+  <si>
+    <t>You can activate the Multi-language module to use multiple languages</t>
+  </si>
+  <si>
+    <t>crwdns50947:0crwdne50947:0</t>
+  </si>
+  <si>
+    <t>Multi language mode</t>
+  </si>
+  <si>
+    <t>crwdns50949:0crwdne50949:0</t>
+  </si>
+  <si>
+    <t>Activate the multi-language mode to have multiple languages for your content.</t>
+  </si>
+  <si>
+    <t>crwdns50951:0crwdne50951:0</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>crwdns50953:0crwdne50953:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t>crwdns50955:0crwdne50955:0</t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>crwdns50979:0crwdne50979:0</t>
   </si>
   <si>
     <t>Code Editor</t>
   </si>
   <si>
-    <t>crwdns49606:0crwdne49606:0</t>
-  </si>
-  <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>crwdns49612:0crwdne49612:0</t>
-  </si>
-  <si>
-    <t>titles</t>
-  </si>
-  <si>
-    <t>crwdns49614:0crwdne49614:0</t>
-  </si>
-  <si>
-    <t>Titles 1</t>
-  </si>
-  <si>
-    <t>crwdns49616:0crwdne49616:0</t>
-  </si>
-  <si>
-    <t>Titles 2</t>
-  </si>
-  <si>
-    <t>crwdns49618:0crwdne49618:0</t>
-  </si>
-  <si>
-    <t>Titles 3</t>
-  </si>
-  <si>
-    <t>crwdns49620:0crwdne49620:0</t>
-  </si>
-  <si>
-    <t>Titles 4</t>
-  </si>
-  <si>
-    <t>crwdns49622:0crwdne49622:0</t>
-  </si>
-  <si>
-    <t>Titles 5</t>
-  </si>
-  <si>
-    <t>crwdns49624:0crwdne49624:0</t>
-  </si>
-  <si>
-    <t>Titles 6</t>
-  </si>
-  <si>
-    <t>crwdns49626:0crwdne49626:0</t>
-  </si>
-  <si>
-    <t>Titles 7</t>
-  </si>
-  <si>
-    <t>crwdns49628:0crwdne49628:0</t>
-  </si>
-  <si>
-    <t>Titles 8</t>
-  </si>
-  <si>
-    <t>crwdns49630:0crwdne49630:0</t>
-  </si>
-  <si>
-    <t>text block</t>
-  </si>
-  <si>
-    <t>crwdns49632:0crwdne49632:0</t>
-  </si>
-  <si>
-    <t>Text block 1</t>
-  </si>
-  <si>
-    <t>crwdns49634:0crwdne49634:0</t>
-  </si>
-  <si>
-    <t>Text block 2</t>
-  </si>
-  <si>
-    <t>crwdns49636:0crwdne49636:0</t>
-  </si>
-  <si>
-    <t>Text block 3</t>
-  </si>
-  <si>
-    <t>crwdns49638:0crwdne49638:0</t>
-  </si>
-  <si>
-    <t>Text block 4</t>
-  </si>
-  <si>
-    <t>crwdns49640:0crwdne49640:0</t>
-  </si>
-  <si>
-    <t>Text block 5</t>
-  </si>
-  <si>
-    <t>crwdns49642:0crwdne49642:0</t>
-  </si>
-  <si>
-    <t>Text block 6</t>
-  </si>
-  <si>
-    <t>crwdns49644:0crwdne49644:0</t>
-  </si>
-  <si>
-    <t>Text block 7</t>
-  </si>
-  <si>
-    <t>crwdns49646:0crwdne49646:0</t>
-  </si>
-  <si>
-    <t>Text block 8</t>
-  </si>
-  <si>
-    <t>crwdns49648:0crwdne49648:0</t>
-  </si>
-  <si>
-    <t>Text block 9</t>
-  </si>
-  <si>
-    <t>crwdns49650:0crwdne49650:0</t>
-  </si>
-  <si>
-    <t>Text block 10</t>
-  </si>
-  <si>
-    <t>crwdns49652:0crwdne49652:0</t>
-  </si>
-  <si>
-    <t>Text block 11</t>
-  </si>
-  <si>
-    <t>crwdns49654:0crwdne49654:0</t>
-  </si>
-  <si>
-    <t>Text block 12</t>
-  </si>
-  <si>
-    <t>crwdns49656:0crwdne49656:0</t>
-  </si>
-  <si>
-    <t>Text block 13</t>
-  </si>
-  <si>
-    <t>crwdns49658:0crwdne49658:0</t>
-  </si>
-  <si>
-    <t>Text block 14</t>
-  </si>
-  <si>
-    <t>crwdns49660:0crwdne49660:0</t>
-  </si>
-  <si>
-    <t>Text block 15</t>
-  </si>
-  <si>
-    <t>crwdns49662:0crwdne49662:0</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>crwdns49664:0crwdne49664:0</t>
-  </si>
-  <si>
-    <t>Features 1</t>
-  </si>
-  <si>
-    <t>crwdns49666:0crwdne49666:0</t>
-  </si>
-  <si>
-    <t>Features 2</t>
-  </si>
-  <si>
-    <t>crwdns49668:0crwdne49668:0</t>
-  </si>
-  <si>
-    <t>Features 3</t>
-  </si>
-  <si>
-    <t>crwdns49670:0crwdne49670:0</t>
-  </si>
-  <si>
-    <t>Features 4</t>
-  </si>
-  <si>
-    <t>crwdns49672:0crwdne49672:0</t>
-  </si>
-  <si>
-    <t>grids</t>
-  </si>
-  <si>
-    <t>crwdns49674:0crwdne49674:0</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>crwdns49676:0crwdne49676:0</t>
-  </si>
-  <si>
-    <t>Menu - skin-1</t>
-  </si>
-  <si>
-    <t>crwdns49678:0crwdne49678:0</t>
-  </si>
-  <si>
-    <t>Menu - skin-2</t>
-  </si>
-  <si>
-    <t>crwdns49680:0crwdne49680:0</t>
-  </si>
-  <si>
-    <t>Menu - skin-3</t>
-  </si>
-  <si>
-    <t>crwdns49682:0crwdne49682:0</t>
-  </si>
-  <si>
-    <t>Menu - skin-4</t>
-  </si>
-  <si>
-    <t>crwdns49684:0crwdne49684:0</t>
-  </si>
-  <si>
-    <t>Menu - skin-5</t>
-  </si>
-  <si>
-    <t>crwdns49686:0crwdne49686:0</t>
-  </si>
-  <si>
-    <t>footers</t>
-  </si>
-  <si>
-    <t>crwdns49688:0crwdne49688:0</t>
-  </si>
-  <si>
-    <t>Footers 1</t>
-  </si>
-  <si>
-    <t>crwdns49690:0crwdne49690:0</t>
-  </si>
-  <si>
-    <t>Footers 2</t>
-  </si>
-  <si>
-    <t>crwdns49692:0crwdne49692:0</t>
-  </si>
-  <si>
-    <t>Footers 3</t>
-  </si>
-  <si>
-    <t>crwdns49694:0crwdne49694:0</t>
-  </si>
-  <si>
-    <t>Footers 4</t>
-  </si>
-  <si>
-    <t>crwdns49696:0crwdne49696:0</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>crwdns49698:0crwdne49698:0</t>
-  </si>
-  <si>
-    <t>crwdns49700:0crwdne49700:0</t>
-  </si>
-  <si>
-    <t>jumbotron</t>
-  </si>
-  <si>
-    <t>crwdns49702:0crwdne49702:0</t>
-  </si>
-  <si>
-    <t>Jumbotron 1</t>
-  </si>
-  <si>
-    <t>crwdns49704:0crwdne49704:0</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>crwdns49706:0crwdne49706:0</t>
-  </si>
-  <si>
-    <t>Pricing 1</t>
-  </si>
-  <si>
-    <t>crwdns49708:0crwdne49708:0</t>
+    <t>crwdns50981:0crwdne50981:0</t>
+  </si>
+  <si>
+    <t>crwdns50983:0crwdne50983:0</t>
   </si>
   <si>
     <t>Default layouts</t>
   </si>
   <si>
-    <t>crwdns49710:0crwdne49710:0</t>
-  </si>
-  <si>
-    <t>No Content Here</t>
-  </si>
-  <si>
-    <t>crwdns49712:0crwdne49712:0</t>
-  </si>
-  <si>
-    <t>Custom fields are saved</t>
-  </si>
-  <si>
-    <t>crwdns49714:0crwdne49714:0</t>
-  </si>
-  <si>
-    <t>Existing fields</t>
-  </si>
-  <si>
-    <t>crwdns49716:0crwdne49716:0</t>
-  </si>
-  <si>
-    <t>Choose from your existing fields bellow</t>
-  </si>
-  <si>
-    <t>crwdns49718:0crwdne49718:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add new fields</t>
-  </si>
-  <si>
-    <t>crwdns49720:0crwdne49720:0</t>
-  </si>
-  <si>
-    <t>Add new custom field from list bellow</t>
-  </si>
-  <si>
-    <t>crwdns49722:0crwdne49722:0</t>
-  </si>
-  <si>
-    <t>Your fields</t>
-  </si>
-  <si>
-    <t>crwdns49724:0crwdne49724:0</t>
-  </si>
-  <si>
-    <t>List of your added custom fields</t>
-  </si>
-  <si>
-    <t>crwdns49726:0crwdne49726:0</t>
+    <t>crwdns50985:0crwdne50985:0</t>
+  </si>
+  <si>
+    <t>New import</t>
+  </si>
+  <si>
+    <t>crwdns50987:0crwdne50987:0</t>
   </si>
   <si>
     <t xml:space="preserve">repeat vertically </t>
   </si>
   <si>
-    <t>crwdns49728:0crwdne49728:0</t>
+    <t>crwdns50989:0crwdne50989:0</t>
   </si>
   <si>
     <t>Font Family</t>
   </si>
   <si>
-    <t>crwdns49730:0crwdne49730:0</t>
+    <t>crwdns50991:0crwdne50991:0</t>
   </si>
   <si>
     <t>Overlay</t>
   </si>
   <si>
-    <t>crwdns49732:0crwdne49732:0</t>
+    <t>crwdns50993:0crwdne50993:0</t>
   </si>
   <si>
     <t>Blend mode</t>
   </si>
   <si>
-    <t>crwdns49734:0crwdne49734:0</t>
+    <t>crwdns50995:0crwdne50995:0</t>
   </si>
   <si>
     <t>Container</t>
   </si>
   <si>
-    <t>crwdns49736:0crwdne49736:0</t>
+    <t>crwdns50997:0crwdne50997:0</t>
   </si>
   <si>
     <t>Container type</t>
   </si>
   <si>
-    <t>crwdns49738:0crwdne49738:0</t>
+    <t>crwdns50999:0crwdne50999:0</t>
   </si>
   <si>
     <t>Animations</t>
   </si>
   <si>
-    <t>crwdns49740:0crwdne49740:0</t>
+    <t>crwdns51001:0crwdne51001:0</t>
   </si>
   <si>
     <t>Reloading styles</t>
   </si>
   <si>
-    <t>crwdns49742:0crwdne49742:0</t>
-  </si>
-  <si>
-    <t>Links to</t>
-  </si>
-  <si>
-    <t>crwdns49744:0crwdne49744:0</t>
-  </si>
-  <si>
-    <t>Preview package</t>
-  </si>
-  <si>
-    <t>crwdns49746:0crwdne49746:0</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>crwdns49748:0crwdne49748:0</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>crwdns49750:0crwdne49750:0</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>crwdns49752:0crwdne49752:0</t>
-  </si>
-  <si>
-    <t>Reorder</t>
-  </si>
-  <si>
-    <t>crwdns49758:0crwdne49758:0</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>crwdns49762:0crwdne49762:0</t>
-  </si>
-  <si>
-    <t>Browser Redirect</t>
-  </si>
-  <si>
-    <t>crwdns49764:0crwdne49764:0</t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>crwdns49766:0crwdne49766:0</t>
-  </si>
-  <si>
-    <t>Standalone Updater</t>
-  </si>
-  <si>
-    <t>crwdns49768:0crwdne49768:0</t>
-  </si>
-  <si>
-    <t>You need license key to install this package</t>
-  </si>
-  <si>
-    <t>crwdns49770:0crwdne49770:0</t>
-  </si>
-  <si>
-    <t>This package is premium and you must have a license key to install it</t>
-  </si>
-  <si>
-    <t>crwdns49772:0crwdne49772:0</t>
-  </si>
-  <si>
-    <t>You need license key</t>
-  </si>
-  <si>
-    <t>crwdns49774:0crwdne49774:0</t>
-  </si>
-  <si>
-    <t>License activated</t>
-  </si>
-  <si>
-    <t>crwdns49776:0crwdne49776:0</t>
-  </si>
-  <si>
-    <t>Reloading page</t>
-  </si>
-  <si>
-    <t>crwdns49778:0crwdne49778:0</t>
-  </si>
-  <si>
-    <t>License not activated</t>
-  </si>
-  <si>
-    <t>crwdns49780:0crwdne49780:0</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>crwdns49782:0crwdne49782:0</t>
-  </si>
-  <si>
-    <t>System updates</t>
-  </si>
-  <si>
-    <t>crwdns49784:0crwdne49784:0</t>
-  </si>
-  <si>
-    <t>Check for system updates</t>
-  </si>
-  <si>
-    <t>crwdns49786:0crwdne49786:0</t>
-  </si>
-  <si>
-    <t>Back to list</t>
-  </si>
-  <si>
-    <t>crwdns49788:0crwdne49788:0</t>
-  </si>
-  <si>
-    <t>The category must have a name</t>
-  </si>
-  <si>
-    <t>crwdns49790:0crwdne49790:0</t>
-  </si>
-  <si>
-    <t>Is category hidden?</t>
-  </si>
-  <si>
-    <t>crwdns49792:0crwdne49792:0</t>
-  </si>
-  <si>
-    <t>If you set this to YES this category will be hidden from the website</t>
-  </si>
-  <si>
-    <t>crwdns49794:0crwdne49794:0</t>
-  </si>
-  <si>
-    <t>template-big</t>
-  </si>
-  <si>
-    <t>Mentioning</t>
-  </si>
-  <si>
-    <t>crwdns49796:0crwdne49796:0</t>
-  </si>
-  <si>
-    <t>Your cart is empty.</t>
-  </si>
-  <si>
-    <t>crwdns49824:0crwdne49824:0</t>
-  </si>
-  <si>
-    <t>Results found</t>
-  </si>
-  <si>
-    <t>crwdns49826:0crwdne49826:0</t>
-  </si>
-  <si>
-    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
-  </si>
-  <si>
-    <t>crwdns49840:0crwdne49840:0</t>
-  </si>
-  <si>
-    <t>أضف منتج</t>
-  </si>
-  <si>
-    <t>crwdns49842:0crwdne49842:0</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>crwdns49844:0crwdne49844:0</t>
-  </si>
-  <si>
-    <t>values.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>crwdns49848:0crwdne49848:0</t>
-  </si>
-  <si>
-    <t>تحرير المنتج</t>
-  </si>
-  <si>
-    <t>crwdns49850:0crwdne49850:0</t>
-  </si>
-  <si>
-    <t>iuiuui</t>
-  </si>
-  <si>
-    <t>crwdns49852:0crwdne49852:0</t>
-  </si>
-  <si>
-    <t>Proceed to Checkout</t>
-  </si>
-  <si>
-    <t>crwdns49854:0crwdne49854:0</t>
-  </si>
-  <si>
-    <t>تحرير آخر</t>
-  </si>
-  <si>
-    <t>crwdns49860:0crwdne49860:0</t>
-  </si>
-  <si>
-    <t>Displaying</t>
-  </si>
-  <si>
-    <t>crwdns50396:0crwdne50396:0</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>crwdns50398:0crwdne50398:0</t>
-  </si>
-  <si>
-    <t>result(s)</t>
-  </si>
-  <si>
-    <t>crwdns50400:0crwdne50400:0</t>
-  </si>
-  <si>
-    <t>Page Title - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>crwdns50402:0crwdne50402:0</t>
-  </si>
-  <si>
-    <t>Page Title - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>crwdns50404:0crwdne50404:0</t>
-  </si>
-  <si>
-    <t>Terms of use</t>
-  </si>
-  <si>
-    <t>crwdns50406:0crwdne50406:0</t>
-  </si>
-  <si>
-    <t>Delivery and returns</t>
-  </si>
-  <si>
-    <t>crwdns50408:0crwdne50408:0</t>
-  </si>
-  <si>
-    <t>Shipping information</t>
-  </si>
-  <si>
-    <t>crwdns50410:0crwdne50410:0</t>
-  </si>
-  <si>
-    <t>About 1</t>
-  </si>
-  <si>
-    <t>crwdns50412:0crwdne50412:0</t>
-  </si>
-  <si>
-    <t>About 2</t>
-  </si>
-  <si>
-    <t>crwdns50414:0crwdne50414:0</t>
-  </si>
-  <si>
-    <t>About 3</t>
-  </si>
-  <si>
-    <t>crwdns50416:0crwdne50416:0</t>
-  </si>
-  <si>
-    <t>Home 1</t>
-  </si>
-  <si>
-    <t>crwdns50418:0crwdne50418:0</t>
-  </si>
-  <si>
-    <t>Home 2</t>
-  </si>
-  <si>
-    <t>crwdns50420:0crwdne50420:0</t>
-  </si>
-  <si>
-    <t>You must click the apply template button to change your template</t>
-  </si>
-  <si>
-    <t>crwdns50422:0crwdne50422:0</t>
-  </si>
-  <si>
-    <t>Search by criteria</t>
-  </si>
-  <si>
-    <t>crwdns50424:0crwdne50424:0</t>
-  </si>
-  <si>
-    <t>Order ID</t>
-  </si>
-  <si>
-    <t>crwdns50426:0crwdne50426:0</t>
-  </si>
-  <si>
-    <t>Date from</t>
-  </si>
-  <si>
-    <t>crwdns50428:0crwdne50428:0</t>
-  </si>
-  <si>
-    <t>Set the orders from date</t>
-  </si>
-  <si>
-    <t>crwdns50430:0crwdne50430:0</t>
-  </si>
-  <si>
-    <t>Date to</t>
-  </si>
-  <si>
-    <t>crwdns50432:0crwdne50432:0</t>
-  </si>
-  <si>
-    <t>Set the orders to date</t>
-  </si>
-  <si>
-    <t>crwdns50434:0crwdne50434:0</t>
-  </si>
-  <si>
-    <t>Order amount from</t>
-  </si>
-  <si>
-    <t>crwdns50436:0crwdne50436:0</t>
-  </si>
-  <si>
-    <t>Show the order with minimum amount</t>
-  </si>
-  <si>
-    <t>crwdns50438:0crwdne50438:0</t>
-  </si>
-  <si>
-    <t>Order amount to</t>
-  </si>
-  <si>
-    <t>crwdns50440:0crwdne50440:0</t>
-  </si>
-  <si>
-    <t>Show the order with maximum amount</t>
-  </si>
-  <si>
-    <t>crwdns50442:0crwdne50442:0</t>
-  </si>
-  <si>
-    <t>Search by products...</t>
-  </si>
-  <si>
-    <t>crwdns50444:0crwdne50444:0</t>
-  </si>
-  <si>
-    <t>Search by products</t>
-  </si>
-  <si>
-    <t>crwdns50446:0crwdne50446:0</t>
-  </si>
-  <si>
-    <t>Payment Status</t>
-  </si>
-  <si>
-    <t>crwdns50448:0crwdne50448:0</t>
-  </si>
-  <si>
-    <t>Free search by phone, name, email etc...</t>
-  </si>
-  <si>
-    <t>crwdns50450:0crwdne50450:0</t>
-  </si>
-  <si>
-    <t>Submit this criteria</t>
-  </si>
-  <si>
-    <t>crwdns50452:0crwdne50452:0</t>
-  </si>
-  <si>
-    <t>Reset filter</t>
-  </si>
-  <si>
-    <t>crwdns50454:0crwdne50454:0</t>
-  </si>
-  <si>
-    <t>Export all</t>
-  </si>
-  <si>
-    <t>crwdns50456:0crwdne50456:0</t>
-  </si>
-  <si>
-    <t>Select sorting</t>
-  </si>
-  <si>
-    <t>crwdns50458:0crwdne50458:0</t>
-  </si>
-  <si>
-    <t>Order date</t>
-  </si>
-  <si>
-    <t>crwdns50460:0crwdne50460:0</t>
-  </si>
-  <si>
-    <t>[New &gt; Old]</t>
-  </si>
-  <si>
-    <t>crwdns50462:0crwdne50462:0</t>
-  </si>
-  <si>
-    <t>[Old &gt; New]</t>
-  </si>
-  <si>
-    <t>crwdns50464:0crwdne50464:0</t>
-  </si>
-  <si>
-    <t>[High &gt; Low]</t>
-  </si>
-  <si>
-    <t>crwdns50466:0crwdne50466:0</t>
-  </si>
-  <si>
-    <t>[Low &gt; High]</t>
-  </si>
-  <si>
-    <t>crwdns50468:0crwdne50468:0</t>
-  </si>
-  <si>
-    <t>Order completed</t>
-  </si>
-  <si>
-    <t>crwdns50470:0crwdne50470:0</t>
-  </si>
-  <si>
-    <t>translations from the multilnaguage module have been found in your database.</t>
-  </si>
-  <si>
-    <t>crwdns50472:0crwdne50472:0</t>
-  </si>
-  <si>
-    <t>Warning! Changing the default language can break translations on your site.</t>
-  </si>
-  <si>
-    <t>crwdns50474:0crwdne50474:0</t>
-  </si>
-  <si>
-    <t>Are you sure want to continue?</t>
-  </si>
-  <si>
-    <t>crwdns50476:0crwdne50476:0</t>
-  </si>
-  <si>
-    <t>Warning! The changing default language maybe will break your site.</t>
-  </si>
-  <si>
-    <t>crwdns50478:0crwdne50478:0</t>
-  </si>
-  <si>
-    <t>Shipping details</t>
-  </si>
-  <si>
-    <t>crwdns50480:0crwdne50480:0</t>
-  </si>
-  <si>
-    <t>Shipping type</t>
-  </si>
-  <si>
-    <t>crwdns50482:0crwdne50482:0</t>
-  </si>
-  <si>
-    <t>the order is not completed yet</t>
-  </si>
-  <si>
-    <t>crwdns50484:0crwdne50484:0</t>
-  </si>
-  <si>
-    <t>the order is completed</t>
-  </si>
-  <si>
-    <t>crwdns50486:0crwdne50486:0</t>
-  </si>
-  <si>
-    <t>Created at</t>
-  </si>
-  <si>
-    <t>crwdns50488:0crwdne50488:0</t>
-  </si>
-  <si>
-    <t>Updated at</t>
-  </si>
-  <si>
-    <t>crwdns50490:0crwdne50490:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick view </t>
-  </si>
-  <si>
-    <t>crwdns50492:0crwdne50492:0</t>
-  </si>
-  <si>
-    <t>Replace language values</t>
-  </si>
-  <si>
-    <t>crwdns50494:0crwdne50494:0</t>
-  </si>
-  <si>
-    <t>Translations are imported</t>
-  </si>
-  <si>
-    <t>crwdns50496:0crwdne50496:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
-  </si>
-  <si>
-    <t>crwdns50498:0crwdne50498:0</t>
+    <t>crwdns51003:0crwdne51003:0</t>
   </si>
 </sst>
 </file>
@@ -19680,7 +19086,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3217"/>
+  <dimension ref="A1:E3119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -72531,11 +71937,11 @@
       <c r="B3109" t="s">
         <v>5</v>
       </c>
-      <c r="C3109" t="s">
+      <c r="C3109">
+        <v>404</v>
+      </c>
+      <c r="D3109" t="s">
         <v>6222</v>
-      </c>
-      <c r="D3109" t="s">
-        <v>6223</v>
       </c>
       <c r="E3109" t="s">
         <v>8</v>
@@ -72548,8 +71954,8 @@
       <c r="B3110" t="s">
         <v>5</v>
       </c>
-      <c r="C3110">
-        <v>404</v>
+      <c r="C3110" t="s">
+        <v>6223</v>
       </c>
       <c r="D3110" t="s">
         <v>6224</v>
@@ -72708,1672 +72114,6 @@
         <v>6242</v>
       </c>
       <c r="E3119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:5">
-      <c r="A3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3120" t="s">
-        <v>6243</v>
-      </c>
-      <c r="D3120" t="s">
-        <v>6244</v>
-      </c>
-      <c r="E3120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:5">
-      <c r="A3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3121" t="s">
-        <v>6245</v>
-      </c>
-      <c r="D3121" t="s">
-        <v>6246</v>
-      </c>
-      <c r="E3121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:5">
-      <c r="A3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3122" t="s">
-        <v>6247</v>
-      </c>
-      <c r="D3122" t="s">
-        <v>6248</v>
-      </c>
-      <c r="E3122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:5">
-      <c r="A3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3123" t="s">
-        <v>6249</v>
-      </c>
-      <c r="D3123" t="s">
-        <v>6250</v>
-      </c>
-      <c r="E3123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:5">
-      <c r="A3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3124" t="s">
-        <v>6251</v>
-      </c>
-      <c r="D3124" t="s">
-        <v>6252</v>
-      </c>
-      <c r="E3124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:5">
-      <c r="A3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3125" t="s">
-        <v>6253</v>
-      </c>
-      <c r="D3125" t="s">
-        <v>6254</v>
-      </c>
-      <c r="E3125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:5">
-      <c r="A3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3126" t="s">
-        <v>6255</v>
-      </c>
-      <c r="D3126" t="s">
-        <v>6256</v>
-      </c>
-      <c r="E3126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:5">
-      <c r="A3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3127" t="s">
-        <v>6257</v>
-      </c>
-      <c r="D3127" t="s">
-        <v>6258</v>
-      </c>
-      <c r="E3127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:5">
-      <c r="A3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3128" t="s">
-        <v>6259</v>
-      </c>
-      <c r="D3128" t="s">
-        <v>6260</v>
-      </c>
-      <c r="E3128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:5">
-      <c r="A3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3129" t="s">
-        <v>6261</v>
-      </c>
-      <c r="D3129" t="s">
-        <v>6262</v>
-      </c>
-      <c r="E3129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3130" spans="1:5">
-      <c r="A3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3130" t="s">
-        <v>6263</v>
-      </c>
-      <c r="D3130" t="s">
-        <v>6264</v>
-      </c>
-      <c r="E3130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:5">
-      <c r="A3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3131" t="s">
-        <v>6265</v>
-      </c>
-      <c r="D3131" t="s">
-        <v>6266</v>
-      </c>
-      <c r="E3131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:5">
-      <c r="A3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3132" t="s">
-        <v>6267</v>
-      </c>
-      <c r="D3132" t="s">
-        <v>6268</v>
-      </c>
-      <c r="E3132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:5">
-      <c r="A3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3133" t="s">
-        <v>6269</v>
-      </c>
-      <c r="D3133" t="s">
-        <v>6270</v>
-      </c>
-      <c r="E3133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:5">
-      <c r="A3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3134" t="s">
-        <v>6271</v>
-      </c>
-      <c r="D3134" t="s">
-        <v>6272</v>
-      </c>
-      <c r="E3134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:5">
-      <c r="A3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3135" t="s">
-        <v>6273</v>
-      </c>
-      <c r="D3135" t="s">
-        <v>6274</v>
-      </c>
-      <c r="E3135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:5">
-      <c r="A3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3136" t="s">
-        <v>6275</v>
-      </c>
-      <c r="D3136" t="s">
-        <v>6276</v>
-      </c>
-      <c r="E3136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:5">
-      <c r="A3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3137" t="s">
-        <v>6277</v>
-      </c>
-      <c r="D3137" t="s">
-        <v>6278</v>
-      </c>
-      <c r="E3137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:5">
-      <c r="A3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3138" t="s">
-        <v>6279</v>
-      </c>
-      <c r="D3138" t="s">
-        <v>6280</v>
-      </c>
-      <c r="E3138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:5">
-      <c r="A3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3139" t="s">
-        <v>6281</v>
-      </c>
-      <c r="D3139" t="s">
-        <v>6282</v>
-      </c>
-      <c r="E3139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:5">
-      <c r="A3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3140" t="s">
-        <v>6283</v>
-      </c>
-      <c r="D3140" t="s">
-        <v>6284</v>
-      </c>
-      <c r="E3140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:5">
-      <c r="A3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3141" t="s">
-        <v>6285</v>
-      </c>
-      <c r="D3141" t="s">
-        <v>6286</v>
-      </c>
-      <c r="E3141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3142" spans="1:5">
-      <c r="A3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3142" t="s">
-        <v>6287</v>
-      </c>
-      <c r="D3142" t="s">
-        <v>6288</v>
-      </c>
-      <c r="E3142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:5">
-      <c r="A3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3143" t="s">
-        <v>6289</v>
-      </c>
-      <c r="D3143" t="s">
-        <v>6290</v>
-      </c>
-      <c r="E3143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:5">
-      <c r="A3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3144" t="s">
-        <v>6291</v>
-      </c>
-      <c r="D3144" t="s">
-        <v>6292</v>
-      </c>
-      <c r="E3144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:5">
-      <c r="A3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3145" t="s">
-        <v>6293</v>
-      </c>
-      <c r="D3145" t="s">
-        <v>6294</v>
-      </c>
-      <c r="E3145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3146" spans="1:5">
-      <c r="A3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3146" t="s">
-        <v>6295</v>
-      </c>
-      <c r="D3146" t="s">
-        <v>6296</v>
-      </c>
-      <c r="E3146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:5">
-      <c r="A3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3147" t="s">
-        <v>6297</v>
-      </c>
-      <c r="D3147" t="s">
-        <v>6298</v>
-      </c>
-      <c r="E3147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:5">
-      <c r="A3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3148" t="s">
-        <v>6299</v>
-      </c>
-      <c r="D3148" t="s">
-        <v>6300</v>
-      </c>
-      <c r="E3148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:5">
-      <c r="A3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3149" t="s">
-        <v>6301</v>
-      </c>
-      <c r="D3149" t="s">
-        <v>6302</v>
-      </c>
-      <c r="E3149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3150" spans="1:5">
-      <c r="A3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3150" t="s">
-        <v>6303</v>
-      </c>
-      <c r="D3150" t="s">
-        <v>6304</v>
-      </c>
-      <c r="E3150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:5">
-      <c r="A3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3151" t="s">
-        <v>6305</v>
-      </c>
-      <c r="D3151" t="s">
-        <v>6306</v>
-      </c>
-      <c r="E3151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:5">
-      <c r="A3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3152" t="s">
-        <v>6307</v>
-      </c>
-      <c r="D3152" t="s">
-        <v>6308</v>
-      </c>
-      <c r="E3152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:5">
-      <c r="A3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3153" t="s">
-        <v>6309</v>
-      </c>
-      <c r="D3153" t="s">
-        <v>6310</v>
-      </c>
-      <c r="E3153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3154" spans="1:5">
-      <c r="A3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3154" t="s">
-        <v>6311</v>
-      </c>
-      <c r="D3154" t="s">
-        <v>6312</v>
-      </c>
-      <c r="E3154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:5">
-      <c r="A3155" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3155" t="s">
-        <v>6313</v>
-      </c>
-      <c r="C3155" t="s">
-        <v>6314</v>
-      </c>
-      <c r="D3155" t="s">
-        <v>6315</v>
-      </c>
-      <c r="E3155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:5">
-      <c r="A3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3156" t="s">
-        <v>6316</v>
-      </c>
-      <c r="D3156" t="s">
-        <v>6317</v>
-      </c>
-      <c r="E3156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:5">
-      <c r="A3157" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3157" t="s">
-        <v>6127</v>
-      </c>
-      <c r="C3157" t="s">
-        <v>6318</v>
-      </c>
-      <c r="D3157" t="s">
-        <v>6319</v>
-      </c>
-      <c r="E3157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3158" spans="1:5">
-      <c r="A3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3158" t="s">
-        <v>6320</v>
-      </c>
-      <c r="D3158" t="s">
-        <v>6321</v>
-      </c>
-      <c r="E3158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:5">
-      <c r="A3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3159" t="s">
-        <v>6322</v>
-      </c>
-      <c r="D3159" t="s">
-        <v>6323</v>
-      </c>
-      <c r="E3159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:5">
-      <c r="A3160" t="s">
-        <v>6324</v>
-      </c>
-      <c r="B3160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3160" t="s">
-        <v>6325</v>
-      </c>
-      <c r="D3160" t="s">
-        <v>6326</v>
-      </c>
-      <c r="E3160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:5">
-      <c r="A3161" t="s">
-        <v>6324</v>
-      </c>
-      <c r="B3161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3161" t="s">
-        <v>6327</v>
-      </c>
-      <c r="D3161" t="s">
-        <v>6328</v>
-      </c>
-      <c r="E3161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3162" spans="1:5">
-      <c r="A3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3162" t="s">
-        <v>6329</v>
-      </c>
-      <c r="D3162" t="s">
-        <v>6330</v>
-      </c>
-      <c r="E3162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:5">
-      <c r="A3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3163" t="s">
-        <v>6331</v>
-      </c>
-      <c r="D3163" t="s">
-        <v>6332</v>
-      </c>
-      <c r="E3163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:5">
-      <c r="A3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3164" t="s">
-        <v>6333</v>
-      </c>
-      <c r="D3164" t="s">
-        <v>6334</v>
-      </c>
-      <c r="E3164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:5">
-      <c r="A3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3165" t="s">
-        <v>6335</v>
-      </c>
-      <c r="D3165" t="s">
-        <v>6336</v>
-      </c>
-      <c r="E3165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3166" spans="1:5">
-      <c r="A3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3166" t="s">
-        <v>6337</v>
-      </c>
-      <c r="D3166" t="s">
-        <v>6338</v>
-      </c>
-      <c r="E3166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3167" spans="1:5">
-      <c r="A3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3167" t="s">
-        <v>6339</v>
-      </c>
-      <c r="D3167" t="s">
-        <v>6340</v>
-      </c>
-      <c r="E3167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:5">
-      <c r="A3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3168" t="s">
-        <v>6341</v>
-      </c>
-      <c r="D3168" t="s">
-        <v>6342</v>
-      </c>
-      <c r="E3168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:5">
-      <c r="A3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3169" t="s">
-        <v>6343</v>
-      </c>
-      <c r="D3169" t="s">
-        <v>6344</v>
-      </c>
-      <c r="E3169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3170" spans="1:5">
-      <c r="A3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3170" t="s">
-        <v>6345</v>
-      </c>
-      <c r="D3170" t="s">
-        <v>6346</v>
-      </c>
-      <c r="E3170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:5">
-      <c r="A3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3171" t="s">
-        <v>6347</v>
-      </c>
-      <c r="D3171" t="s">
-        <v>6348</v>
-      </c>
-      <c r="E3171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:5">
-      <c r="A3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3172" t="s">
-        <v>6349</v>
-      </c>
-      <c r="D3172" t="s">
-        <v>6350</v>
-      </c>
-      <c r="E3172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:5">
-      <c r="A3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3173" t="s">
-        <v>6351</v>
-      </c>
-      <c r="D3173" t="s">
-        <v>6352</v>
-      </c>
-      <c r="E3173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3174" spans="1:5">
-      <c r="A3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3174" t="s">
-        <v>6353</v>
-      </c>
-      <c r="D3174" t="s">
-        <v>6354</v>
-      </c>
-      <c r="E3174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:5">
-      <c r="A3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3175" t="s">
-        <v>6355</v>
-      </c>
-      <c r="D3175" t="s">
-        <v>6356</v>
-      </c>
-      <c r="E3175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:5">
-      <c r="A3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3176" t="s">
-        <v>6357</v>
-      </c>
-      <c r="D3176" t="s">
-        <v>6358</v>
-      </c>
-      <c r="E3176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:5">
-      <c r="A3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3177" t="s">
-        <v>6359</v>
-      </c>
-      <c r="D3177" t="s">
-        <v>6360</v>
-      </c>
-      <c r="E3177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3178" spans="1:5">
-      <c r="A3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3178" t="s">
-        <v>6361</v>
-      </c>
-      <c r="D3178" t="s">
-        <v>6362</v>
-      </c>
-      <c r="E3178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:5">
-      <c r="A3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3179" t="s">
-        <v>6363</v>
-      </c>
-      <c r="D3179" t="s">
-        <v>6364</v>
-      </c>
-      <c r="E3179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:5">
-      <c r="A3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3180" t="s">
-        <v>6365</v>
-      </c>
-      <c r="D3180" t="s">
-        <v>6366</v>
-      </c>
-      <c r="E3180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:5">
-      <c r="A3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3181" t="s">
-        <v>6367</v>
-      </c>
-      <c r="D3181" t="s">
-        <v>6368</v>
-      </c>
-      <c r="E3181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3182" spans="1:5">
-      <c r="A3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3182" t="s">
-        <v>6369</v>
-      </c>
-      <c r="D3182" t="s">
-        <v>6370</v>
-      </c>
-      <c r="E3182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:5">
-      <c r="A3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3183" t="s">
-        <v>6371</v>
-      </c>
-      <c r="D3183" t="s">
-        <v>6372</v>
-      </c>
-      <c r="E3183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:5">
-      <c r="A3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3184" t="s">
-        <v>6373</v>
-      </c>
-      <c r="D3184" t="s">
-        <v>6374</v>
-      </c>
-      <c r="E3184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:5">
-      <c r="A3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3185" t="s">
-        <v>6375</v>
-      </c>
-      <c r="D3185" t="s">
-        <v>6376</v>
-      </c>
-      <c r="E3185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3186" spans="1:5">
-      <c r="A3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3186" t="s">
-        <v>6377</v>
-      </c>
-      <c r="D3186" t="s">
-        <v>6378</v>
-      </c>
-      <c r="E3186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:5">
-      <c r="A3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3187" t="s">
-        <v>6379</v>
-      </c>
-      <c r="D3187" t="s">
-        <v>6380</v>
-      </c>
-      <c r="E3187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:5">
-      <c r="A3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3188" t="s">
-        <v>6381</v>
-      </c>
-      <c r="D3188" t="s">
-        <v>6382</v>
-      </c>
-      <c r="E3188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:5">
-      <c r="A3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3189" t="s">
-        <v>6383</v>
-      </c>
-      <c r="D3189" t="s">
-        <v>6384</v>
-      </c>
-      <c r="E3189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:5">
-      <c r="A3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3190" t="s">
-        <v>6385</v>
-      </c>
-      <c r="D3190" t="s">
-        <v>6386</v>
-      </c>
-      <c r="E3190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:5">
-      <c r="A3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3191" t="s">
-        <v>6387</v>
-      </c>
-      <c r="D3191" t="s">
-        <v>6388</v>
-      </c>
-      <c r="E3191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:5">
-      <c r="A3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3192" t="s">
-        <v>6389</v>
-      </c>
-      <c r="D3192" t="s">
-        <v>6390</v>
-      </c>
-      <c r="E3192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:5">
-      <c r="A3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3193" t="s">
-        <v>6391</v>
-      </c>
-      <c r="D3193" t="s">
-        <v>6392</v>
-      </c>
-      <c r="E3193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:5">
-      <c r="A3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3194" t="s">
-        <v>6393</v>
-      </c>
-      <c r="D3194" t="s">
-        <v>6394</v>
-      </c>
-      <c r="E3194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:5">
-      <c r="A3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3195" t="s">
-        <v>6395</v>
-      </c>
-      <c r="D3195" t="s">
-        <v>6396</v>
-      </c>
-      <c r="E3195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:5">
-      <c r="A3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3196" t="s">
-        <v>6397</v>
-      </c>
-      <c r="D3196" t="s">
-        <v>6398</v>
-      </c>
-      <c r="E3196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:5">
-      <c r="A3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3197" t="s">
-        <v>6399</v>
-      </c>
-      <c r="D3197" t="s">
-        <v>6400</v>
-      </c>
-      <c r="E3197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3198" spans="1:5">
-      <c r="A3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3198" t="s">
-        <v>6401</v>
-      </c>
-      <c r="D3198" t="s">
-        <v>6402</v>
-      </c>
-      <c r="E3198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:5">
-      <c r="A3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3199" t="s">
-        <v>6403</v>
-      </c>
-      <c r="D3199" t="s">
-        <v>6404</v>
-      </c>
-      <c r="E3199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:5">
-      <c r="A3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3200" t="s">
-        <v>6405</v>
-      </c>
-      <c r="D3200" t="s">
-        <v>6406</v>
-      </c>
-      <c r="E3200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:5">
-      <c r="A3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3201" t="s">
-        <v>6407</v>
-      </c>
-      <c r="D3201" t="s">
-        <v>6408</v>
-      </c>
-      <c r="E3201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:5">
-      <c r="A3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3202" t="s">
-        <v>6409</v>
-      </c>
-      <c r="D3202" t="s">
-        <v>6410</v>
-      </c>
-      <c r="E3202" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:5">
-      <c r="A3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3203" t="s">
-        <v>6411</v>
-      </c>
-      <c r="D3203" t="s">
-        <v>6412</v>
-      </c>
-      <c r="E3203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:5">
-      <c r="A3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3204" t="s">
-        <v>6413</v>
-      </c>
-      <c r="D3204" t="s">
-        <v>6414</v>
-      </c>
-      <c r="E3204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:5">
-      <c r="A3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3205" t="s">
-        <v>6415</v>
-      </c>
-      <c r="D3205" t="s">
-        <v>6416</v>
-      </c>
-      <c r="E3205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3206" spans="1:5">
-      <c r="A3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3206" t="s">
-        <v>6417</v>
-      </c>
-      <c r="D3206" t="s">
-        <v>6418</v>
-      </c>
-      <c r="E3206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3207" spans="1:5">
-      <c r="A3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3207" t="s">
-        <v>6419</v>
-      </c>
-      <c r="D3207" t="s">
-        <v>6420</v>
-      </c>
-      <c r="E3207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:5">
-      <c r="A3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3208" t="s">
-        <v>6421</v>
-      </c>
-      <c r="D3208" t="s">
-        <v>6422</v>
-      </c>
-      <c r="E3208" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3209" spans="1:5">
-      <c r="A3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3209" t="s">
-        <v>6423</v>
-      </c>
-      <c r="D3209" t="s">
-        <v>6424</v>
-      </c>
-      <c r="E3209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3210" spans="1:5">
-      <c r="A3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3210" t="s">
-        <v>6425</v>
-      </c>
-      <c r="D3210" t="s">
-        <v>6426</v>
-      </c>
-      <c r="E3210" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3211" spans="1:5">
-      <c r="A3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3211" t="s">
-        <v>6427</v>
-      </c>
-      <c r="D3211" t="s">
-        <v>6428</v>
-      </c>
-      <c r="E3211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3212" spans="1:5">
-      <c r="A3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3212" t="s">
-        <v>6429</v>
-      </c>
-      <c r="D3212" t="s">
-        <v>6430</v>
-      </c>
-      <c r="E3212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3213" spans="1:5">
-      <c r="A3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3213" t="s">
-        <v>6431</v>
-      </c>
-      <c r="D3213" t="s">
-        <v>6432</v>
-      </c>
-      <c r="E3213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3214" spans="1:5">
-      <c r="A3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3214" t="s">
-        <v>6433</v>
-      </c>
-      <c r="D3214" t="s">
-        <v>6434</v>
-      </c>
-      <c r="E3214" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3215" spans="1:5">
-      <c r="A3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3215" t="s">
-        <v>6435</v>
-      </c>
-      <c r="D3215" t="s">
-        <v>6436</v>
-      </c>
-      <c r="E3215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3216" spans="1:5">
-      <c r="A3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3216" t="s">
-        <v>6437</v>
-      </c>
-      <c r="D3216" t="s">
-        <v>6438</v>
-      </c>
-      <c r="E3216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3217" spans="1:5">
-      <c r="A3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3217" t="s">
-        <v>6439</v>
-      </c>
-      <c r="D3217" t="s">
-        <v>6440</v>
-      </c>
-      <c r="E3217" t="s">
         <v>8</v>
       </c>
     </row>
